--- a/biology/Zoologie/Conus_fuscolineatus/Conus_fuscolineatus.xlsx
+++ b/biology/Zoologie/Conus_fuscolineatus/Conus_fuscolineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus fuscolineatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille d'une coquille adulte varie entre 15 mm et 40 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique oriental, de la Guinée à l'Angola, et dans la Méditerranée.
 .
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus fuscolineatus a été décrite pour la première fois en 1905 par le conchyliologiste, éditeur et illustrateur britannique George Brettingham Sowerby III dans « Proceedings of the Malacological Society of London »[1],[2].
-Synonymes
-Conus (Lautoconus) fuscolineatus G. B. Sowerby III, 1905 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus fuscolineatus a été décrite pour la première fois en 1905 par le conchyliologiste, éditeur et illustrateur britannique George Brettingham Sowerby III dans « Proceedings of the Malacological Society of London »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_fuscolineatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_fuscolineatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Lautoconus) fuscolineatus G. B. Sowerby III, 1905 · appellation alternative
 Varioconus fuscolineatus (G. B. Sowerby III, 1905) · non accepté</t>
         </is>
       </c>
